--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62994FC-7A5C-4A2E-A8FB-299C9579DB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ABA7DD-DB54-4B17-904E-E03255A50A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Acomayo</t>
   </si>
@@ -122,6 +115,12 @@
   </si>
   <si>
     <t>24oct-30oct</t>
+  </si>
+  <si>
+    <t>SE-44</t>
+  </si>
+  <si>
+    <t>31oct-06nov</t>
   </si>
 </sst>
 </file>
@@ -529,19 +528,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="J17" sqref="A1:J17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -552,8 +552,9 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -582,8 +583,11 @@
       <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -612,8 +616,11 @@
       <c r="J3" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,8 +635,9 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,8 +656,9 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -664,8 +673,9 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -686,8 +696,9 @@
         <v>1</v>
       </c>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,8 +717,9 @@
         <v>2</v>
       </c>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,11 +739,14 @@
         <v>1</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,11 +774,12 @@
       <c r="I10" s="4">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,8 +794,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -802,8 +819,11 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -817,11 +837,12 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -836,8 +857,9 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -854,8 +876,9 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -874,6 +897,7 @@
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ABA7DD-DB54-4B17-904E-E03255A50A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CE6897-040E-4093-8872-CEE30CE8355F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
+    <workbookView xWindow="6135" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Acomayo</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>31oct-06nov</t>
+  </si>
+  <si>
+    <t>SE-45</t>
+  </si>
+  <si>
+    <t>07oct-13nov</t>
   </si>
 </sst>
 </file>
@@ -528,20 +534,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="6" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -553,8 +560,9 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -586,8 +594,11 @@
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -619,8 +630,11 @@
       <c r="K3" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +650,9 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -657,8 +672,9 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -674,8 +690,9 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -697,8 +714,9 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -718,8 +736,9 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -745,8 +764,9 @@
       <c r="K9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,8 +798,9 @@
         <v>2</v>
       </c>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -795,8 +816,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -822,8 +844,9 @@
       <c r="K12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -841,8 +864,9 @@
         <v>1</v>
       </c>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -858,8 +882,9 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -877,8 +902,9 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -898,6 +924,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CE6897-040E-4093-8872-CEE30CE8355F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E3C42A-2E14-496A-8CCF-804E4ED6A2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Acomayo</t>
   </si>
@@ -127,6 +136,12 @@
   </si>
   <si>
     <t>07oct-13nov</t>
+  </si>
+  <si>
+    <t>14oct-20nov</t>
+  </si>
+  <si>
+    <t>SE-46</t>
   </si>
 </sst>
 </file>
@@ -534,21 +549,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="11.140625" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -561,8 +576,9 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -597,8 +613,11 @@
       <c r="L2" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -633,8 +652,11 @@
       <c r="L3" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,8 +673,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,8 +696,9 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -691,8 +715,9 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -715,8 +740,9 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +763,9 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,8 +792,11 @@
         <v>1</v>
       </c>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +829,11 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -817,8 +850,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -845,8 +879,9 @@
         <v>1</v>
       </c>
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +900,9 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -883,8 +919,11 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -903,8 +942,9 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -925,6 +965,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E3C42A-2E14-496A-8CCF-804E4ED6A2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E488F44-B019-4C10-85CD-774213B41D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Acomayo</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>SE-46</t>
+  </si>
+  <si>
+    <t>SE-47</t>
+  </si>
+  <si>
+    <t>21nov-27nov</t>
   </si>
 </sst>
 </file>
@@ -549,21 +555,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="11.140625" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -577,8 +583,9 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -616,8 +623,11 @@
       <c r="M2" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -655,8 +665,11 @@
       <c r="M3" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,8 +687,9 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -697,8 +711,9 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -716,8 +731,9 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +757,9 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -764,8 +781,9 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,8 +813,9 @@
       <c r="M9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,8 +851,9 @@
       <c r="M10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +871,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,8 +901,9 @@
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -901,8 +923,9 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +945,9 @@
       <c r="M14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -943,8 +967,9 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -966,6 +991,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E488F44-B019-4C10-85CD-774213B41D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06983FC9-4DE6-4851-B366-455F3A3820A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Acomayo</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>21nov-27nov</t>
+  </si>
+  <si>
+    <t>SE-48</t>
+  </si>
+  <si>
+    <t>28nov-04nov</t>
   </si>
 </sst>
 </file>
@@ -555,21 +561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -584,8 +589,9 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -626,8 +632,11 @@
       <c r="N2" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -668,8 +677,11 @@
       <c r="N3" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,8 +700,9 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -712,8 +725,9 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -732,8 +746,9 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,8 +773,9 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,8 +798,9 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,8 +831,9 @@
         <v>1</v>
       </c>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +870,9 @@
         <v>2</v>
       </c>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +891,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,8 +922,9 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -924,8 +945,9 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,8 +968,9 @@
         <v>1</v>
       </c>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -968,8 +991,9 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -992,6 +1016,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06983FC9-4DE6-4851-B366-455F3A3820A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDECDD1-22FD-45C2-9CEB-13E88A6451B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,11 +214,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,6 +260,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +611,7 @@
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -591,7 +628,7 @@
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -636,7 +673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -681,7 +718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,17 +729,20 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -715,19 +755,24 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14">
+        <v>6</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -738,17 +783,22 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14">
+        <v>4</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,21 +811,26 @@
         <v>1</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="14">
+        <v>1</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,19 +843,24 @@
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14">
         <v>2</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="14">
+        <v>4</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,27 +873,32 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14">
+        <v>1</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="14">
+        <v>2</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,27 +917,32 @@
       <c r="F10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
         <v>4</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="14">
         <v>3</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="14">
         <v>2</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4">
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="14">
         <v>2</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14">
+        <v>12</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,17 +953,22 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="14">
+        <v>2</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,21 +985,26 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="14">
         <v>2</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="14">
+        <v>4</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -935,19 +1015,24 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="14">
+        <v>2</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,21 +1041,24 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,19 +1069,24 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="15"/>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="14">
+        <v>7</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1006,17 +1099,27 @@
       <c r="F16" s="6">
         <v>1</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17">
+        <v>4</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDECDD1-22FD-45C2-9CEB-13E88A6451B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC624F8-F131-45BF-8CD9-61D5F398EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Acomayo</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>28nov-04nov</t>
+  </si>
+  <si>
+    <t>SE-49</t>
+  </si>
+  <si>
+    <t>05dic-11dic</t>
   </si>
 </sst>
 </file>
@@ -598,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,9 +615,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -627,8 +634,9 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -672,8 +680,11 @@
       <c r="O2" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -717,8 +728,11 @@
       <c r="O3" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,11 +752,12 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="12"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -765,14 +780,15 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
-      <c r="O5" s="14">
-        <v>6</v>
-      </c>
-      <c r="P5" s="12"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="14">
+        <v>1</v>
+      </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -791,14 +807,13 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="14">
-        <v>4</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,14 +838,13 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="14">
-        <v>1</v>
-      </c>
-      <c r="P7" s="12"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -853,14 +867,13 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="14">
-        <v>4</v>
-      </c>
-      <c r="P8" s="12"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -891,14 +904,13 @@
         <v>1</v>
       </c>
       <c r="N9" s="15"/>
-      <c r="O9" s="14">
-        <v>2</v>
-      </c>
-      <c r="P9" s="11"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,13 +948,14 @@
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="14">
-        <v>12</v>
-      </c>
-      <c r="P10" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="15"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,14 +974,15 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="14">
-        <v>2</v>
-      </c>
-      <c r="P11" s="12"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="14">
+        <v>1</v>
+      </c>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -997,14 +1011,13 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="14">
-        <v>4</v>
-      </c>
-      <c r="P12" s="12"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,14 +1038,13 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="14">
-        <v>2</v>
-      </c>
-      <c r="P13" s="12"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,11 +1066,12 @@
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="12"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1079,14 +1092,15 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="14">
-        <v>7</v>
-      </c>
-      <c r="P15" s="12"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="14">
+        <v>1</v>
+      </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1109,17 +1123,16 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="17">
-        <v>4</v>
-      </c>
-      <c r="P16" s="12"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P17" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC624F8-F131-45BF-8CD9-61D5F398EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542F0E4E-9ADB-4B53-846B-36926D142B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,9 @@
       <c r="O10" s="14">
         <v>1</v>
       </c>
-      <c r="P10" s="15"/>
+      <c r="P10" s="14">
+        <v>1</v>
+      </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542F0E4E-9ADB-4B53-846B-36926D142B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC624F8-F131-45BF-8CD9-61D5F398EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,9 +950,7 @@
       <c r="O10" s="14">
         <v>1</v>
       </c>
-      <c r="P10" s="14">
-        <v>1</v>
-      </c>
+      <c r="P10" s="15"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC624F8-F131-45BF-8CD9-61D5F398EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8938FF64-1C14-4B68-BB5C-FE1237F57DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Acomayo</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>05dic-11dic</t>
+  </si>
+  <si>
+    <t>SE-50</t>
+  </si>
+  <si>
+    <t>12dic-18dic</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -238,11 +244,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -283,6 +304,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +642,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -635,8 +662,9 @@
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -683,8 +711,11 @@
       <c r="P2" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -731,8 +762,11 @@
       <c r="P3" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,19 +779,20 @@
       <c r="F4" s="3"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="12"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -774,21 +809,22 @@
         <v>1</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="12"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="18"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -801,19 +837,22 @@
       <c r="F6" s="3"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="12"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19">
+        <v>1</v>
+      </c>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,21 +869,22 @@
         <v>1</v>
       </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="12"/>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,21 +899,22 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="14">
+      <c r="I8" s="19">
         <v>2</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="12"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -892,25 +933,28 @@
       <c r="H9" s="14">
         <v>1</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14">
-        <v>1</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="14">
-        <v>1</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="11"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19">
+        <v>1</v>
+      </c>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19">
+        <v>1</v>
+      </c>
       <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S9" s="11"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,27 +979,30 @@
       <c r="H10" s="14">
         <v>4</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="19">
         <v>3</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="19">
         <v>2</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14">
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19">
         <v>2</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14">
-        <v>1</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="12"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19">
+        <v>1</v>
+      </c>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19">
+        <v>1</v>
+      </c>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -968,21 +1015,24 @@
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="12"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>1</v>
+      </c>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,21 +1053,22 @@
         <v>2</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14">
-        <v>1</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="12"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,21 +1081,22 @@
       <c r="F13" s="3"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="14">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="12"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,21 +1109,22 @@
         <v>1</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="14">
-        <v>1</v>
-      </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="12"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19">
+        <v>1</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,21 +1139,22 @@
       <c r="H15" s="14">
         <v>1</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="12"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="18"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1117,22 +1171,23 @@
       <c r="H16" s="17">
         <v>1</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="12"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q17" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8938FF64-1C14-4B68-BB5C-FE1237F57DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367F51BE-C106-46EE-A4AC-258423A7D25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Acomayo</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>12dic-18dic</t>
+  </si>
+  <si>
+    <t>SE-51</t>
+  </si>
+  <si>
+    <t>19dic-25dic</t>
   </si>
 </sst>
 </file>
@@ -631,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,10 +648,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -663,8 +669,9 @@
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -714,8 +721,11 @@
       <c r="Q2" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -765,8 +775,11 @@
       <c r="Q3" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R3" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,11 +801,12 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="12"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -820,11 +834,12 @@
         <v>1</v>
       </c>
       <c r="Q5" s="18"/>
-      <c r="R5" s="12"/>
+      <c r="R5" s="18"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -848,11 +863,12 @@
       <c r="Q6" s="19">
         <v>1</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="18"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -880,11 +896,12 @@
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
-      <c r="R7" s="12"/>
+      <c r="R7" s="18"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -910,11 +927,12 @@
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
-      <c r="R8" s="12"/>
+      <c r="R8" s="18"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="12"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -950,11 +968,12 @@
       <c r="Q9" s="19">
         <v>1</v>
       </c>
-      <c r="R9" s="11"/>
+      <c r="R9" s="18"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" s="11"/>
+      <c r="U9" s="12"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,11 +1017,12 @@
       <c r="Q10" s="19">
         <v>1</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="12"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,11 +1048,12 @@
       <c r="Q11" s="19">
         <v>1</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="18"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="12"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,11 +1085,12 @@
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
-      <c r="R12" s="12"/>
+      <c r="R12" s="18"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="12"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1092,11 +1114,12 @@
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
-      <c r="R13" s="12"/>
+      <c r="R13" s="18"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="12"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1120,11 +1143,12 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
-      <c r="R14" s="12"/>
+      <c r="R14" s="18"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="12"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,11 +1174,12 @@
         <v>1</v>
       </c>
       <c r="Q15" s="18"/>
-      <c r="R15" s="12"/>
+      <c r="R15" s="18"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U15" s="12"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1180,14 +1205,15 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="12"/>
+      <c r="R16" s="18"/>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="18:20" x14ac:dyDescent="0.25">
-      <c r="R17" s="12"/>
+      <c r="U16" s="12"/>
+    </row>
+    <row r="17" spans="19:21" x14ac:dyDescent="0.25">
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367F51BE-C106-46EE-A4AC-258423A7D25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFDC26F-A74E-4D11-B2AC-CB5040FFF72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -640,7 +640,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,9 @@
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
+      <c r="R8" s="19">
+        <v>1</v>
+      </c>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
@@ -1205,7 +1207,9 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
+      <c r="R16" s="19">
+        <v>1</v>
+      </c>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFDC26F-A74E-4D11-B2AC-CB5040FFF72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1289BB89-031C-4554-B1B7-18342296C3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Acomayo</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>19dic-25dic</t>
+  </si>
+  <si>
+    <t>SE-52</t>
+  </si>
+  <si>
+    <t>26dic-31dic</t>
   </si>
 </sst>
 </file>
@@ -640,7 +646,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="K13" sqref="K13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +654,7 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -670,6 +676,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -724,6 +731,9 @@
       <c r="R2" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="S2" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -777,6 +787,9 @@
       </c>
       <c r="R3" s="8" t="s">
         <v>45</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -802,7 +815,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="12"/>
+      <c r="S4" s="18"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
     </row>
@@ -835,7 +848,7 @@
       </c>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="12"/>
+      <c r="S5" s="18"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
     </row>
@@ -864,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="18"/>
-      <c r="S6" s="12"/>
+      <c r="S6" s="18"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
@@ -897,7 +910,7 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="12"/>
+      <c r="S7" s="18"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
@@ -930,7 +943,9 @@
       <c r="R8" s="19">
         <v>1</v>
       </c>
-      <c r="S8" s="12"/>
+      <c r="S8" s="19">
+        <v>1</v>
+      </c>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
@@ -971,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="18"/>
-      <c r="S9" s="11"/>
+      <c r="S9" s="18"/>
       <c r="T9" s="11"/>
       <c r="U9" s="12"/>
     </row>
@@ -1020,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="18"/>
-      <c r="S10" s="12"/>
+      <c r="S10" s="18"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
@@ -1051,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="18"/>
-      <c r="S11" s="12"/>
+      <c r="S11" s="18"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
@@ -1088,7 +1103,7 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
-      <c r="S12" s="12"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
@@ -1117,7 +1132,7 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
-      <c r="S13" s="12"/>
+      <c r="S13" s="18"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
@@ -1146,7 +1161,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
-      <c r="S14" s="12"/>
+      <c r="S14" s="18"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
@@ -1177,7 +1192,7 @@
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
-      <c r="S15" s="12"/>
+      <c r="S15" s="18"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
@@ -1210,12 +1225,11 @@
       <c r="R16" s="19">
         <v>1</v>
       </c>
-      <c r="S16" s="12"/>
+      <c r="S16" s="18"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="19:21" x14ac:dyDescent="0.25">
-      <c r="S17" s="12"/>
+    <row r="17" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
     </row>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1289BB89-031C-4554-B1B7-18342296C3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325F4CE4-1E45-43D8-BE48-2679F54CC21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Acomayo</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>26dic-31dic</t>
+  </si>
+  <si>
+    <t>01ene-08ene</t>
   </si>
 </sst>
 </file>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:S13"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,10 +657,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -677,8 +680,9 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -734,8 +738,11 @@
       <c r="S2" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -791,8 +798,11 @@
       <c r="S3" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,10 +826,11 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="12"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="12"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="12"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -849,10 +860,11 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="12"/>
+      <c r="T5" s="18"/>
       <c r="U5" s="12"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="12"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -878,10 +890,13 @@
       </c>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
-      <c r="T6" s="12"/>
+      <c r="T6" s="19">
+        <v>1</v>
+      </c>
       <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="12"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -911,10 +926,11 @@
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
-      <c r="T7" s="12"/>
+      <c r="T7" s="18"/>
       <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="12"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,10 +962,13 @@
       <c r="S8" s="19">
         <v>1</v>
       </c>
-      <c r="T8" s="12"/>
+      <c r="T8" s="19">
+        <v>1</v>
+      </c>
       <c r="U8" s="12"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="12"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -987,10 +1006,11 @@
       </c>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T9" s="18"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1036,10 +1056,13 @@
       </c>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
-      <c r="T10" s="12"/>
+      <c r="T10" s="19">
+        <v>1</v>
+      </c>
       <c r="U10" s="12"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="12"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,10 +1090,11 @@
       </c>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="12"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="12"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,10 +1128,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="12"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="12"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1133,10 +1158,11 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="12"/>
+      <c r="T13" s="18"/>
       <c r="U13" s="12"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,10 +1188,11 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="12"/>
+      <c r="T14" s="18"/>
       <c r="U14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="12"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1193,10 +1220,11 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="12"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="12"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V15" s="12"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1226,12 +1254,13 @@
         <v>1</v>
       </c>
       <c r="S16" s="18"/>
-      <c r="T16" s="12"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="12"/>
-    </row>
-    <row r="17" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T17" s="12"/>
+      <c r="V16" s="12"/>
+    </row>
+    <row r="17" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325F4CE4-1E45-43D8-BE48-2679F54CC21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3292DC-606F-47E2-B47A-C02950501098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Acomayo</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>01ene-08ene</t>
+  </si>
+  <si>
+    <t>SE-01</t>
+  </si>
+  <si>
+    <t>SE-02</t>
+  </si>
+  <si>
+    <t>09ene-15ene</t>
   </si>
 </sst>
 </file>
@@ -646,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,10 +666,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -681,8 +690,9 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -739,10 +749,13 @@
         <v>46</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -801,8 +814,11 @@
       <c r="T3" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,10 +843,11 @@
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
-      <c r="U4" s="12"/>
+      <c r="U4" s="18"/>
       <c r="V4" s="12"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="12"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -861,10 +878,11 @@
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
-      <c r="U5" s="12"/>
+      <c r="U5" s="18"/>
       <c r="V5" s="12"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="12"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -893,10 +911,11 @@
       <c r="T6" s="19">
         <v>1</v>
       </c>
-      <c r="U6" s="12"/>
+      <c r="U6" s="18"/>
       <c r="V6" s="12"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="12"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -927,10 +946,11 @@
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
-      <c r="U7" s="12"/>
+      <c r="U7" s="18"/>
       <c r="V7" s="12"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="12"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,10 +985,13 @@
       <c r="T8" s="19">
         <v>1</v>
       </c>
-      <c r="U8" s="12"/>
+      <c r="U8" s="19">
+        <v>1</v>
+      </c>
       <c r="V8" s="12"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1007,10 +1030,11 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="12"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U9" s="18"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="12"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,10 +1083,13 @@
       <c r="T10" s="19">
         <v>1</v>
       </c>
-      <c r="U10" s="12"/>
+      <c r="U10" s="19">
+        <v>1</v>
+      </c>
       <c r="V10" s="12"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="12"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,10 +1118,11 @@
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
-      <c r="U11" s="12"/>
+      <c r="U11" s="18"/>
       <c r="V11" s="12"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="12"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1129,10 +1157,11 @@
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
-      <c r="U12" s="12"/>
+      <c r="U12" s="18"/>
       <c r="V12" s="12"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,10 +1188,11 @@
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
-      <c r="U13" s="12"/>
+      <c r="U13" s="18"/>
       <c r="V13" s="12"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1189,10 +1219,11 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="12"/>
+      <c r="U14" s="18"/>
       <c r="V14" s="12"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="12"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,10 +1252,11 @@
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
-      <c r="U15" s="12"/>
+      <c r="U15" s="18"/>
       <c r="V15" s="12"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W15" s="12"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1255,12 +1287,13 @@
       </c>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
-      <c r="U16" s="12"/>
+      <c r="U16" s="18"/>
       <c r="V16" s="12"/>
-    </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.25">
-      <c r="U17" s="12"/>
+      <c r="W16" s="12"/>
+    </row>
+    <row r="17" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3292DC-606F-47E2-B47A-C02950501098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0816716B-16AF-4039-950E-4FA94CD1164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Acomayo</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>09ene-15ene</t>
+  </si>
+  <si>
+    <t>16ene-22ene</t>
   </si>
 </sst>
 </file>
@@ -655,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,10 +669,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -691,8 +694,9 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -754,8 +758,11 @@
       <c r="U2" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -817,8 +824,11 @@
       <c r="U3" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V3" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,10 +854,11 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="12"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="12"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="12"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -879,10 +890,11 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
-      <c r="V5" s="12"/>
+      <c r="V5" s="18"/>
       <c r="W5" s="12"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -912,10 +924,11 @@
         <v>1</v>
       </c>
       <c r="U6" s="18"/>
-      <c r="V6" s="12"/>
+      <c r="V6" s="18"/>
       <c r="W6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -947,10 +960,11 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
-      <c r="V7" s="12"/>
+      <c r="V7" s="18"/>
       <c r="W7" s="12"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -988,10 +1002,11 @@
       <c r="U8" s="19">
         <v>1</v>
       </c>
-      <c r="V8" s="12"/>
+      <c r="V8" s="18"/>
       <c r="W8" s="12"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1031,10 +1046,11 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="12"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V9" s="18"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,10 +1102,11 @@
       <c r="U10" s="19">
         <v>1</v>
       </c>
-      <c r="V10" s="12"/>
+      <c r="V10" s="18"/>
       <c r="W10" s="12"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1119,10 +1136,11 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
-      <c r="V11" s="12"/>
+      <c r="V11" s="18"/>
       <c r="W11" s="12"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1158,10 +1176,11 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
-      <c r="V12" s="12"/>
+      <c r="V12" s="18"/>
       <c r="W12" s="12"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1189,10 +1208,11 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
-      <c r="V13" s="12"/>
+      <c r="V13" s="18"/>
       <c r="W13" s="12"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1220,10 +1240,11 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
-      <c r="V14" s="12"/>
+      <c r="V14" s="18"/>
       <c r="W14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1253,10 +1274,11 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
-      <c r="V15" s="12"/>
+      <c r="V15" s="18"/>
       <c r="W15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1288,12 +1310,13 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
-      <c r="V16" s="12"/>
+      <c r="V16" s="18"/>
       <c r="W16" s="12"/>
-    </row>
-    <row r="17" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V17" s="12"/>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="23:24" x14ac:dyDescent="0.25">
       <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0816716B-16AF-4039-950E-4FA94CD1164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69FE2A8-E20E-4809-AE05-8724C903943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -236,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -286,11 +286,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,6 +350,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +679,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,10 +1018,12 @@
         <v>1</v>
       </c>
       <c r="U8" s="19">
-        <v>1</v>
-      </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="V8" s="20">
+        <v>4</v>
+      </c>
+      <c r="W8" s="21"/>
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1045,7 +1065,9 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="U9" s="20">
+        <v>1</v>
+      </c>
       <c r="V9" s="18"/>
       <c r="W9" s="11"/>
       <c r="X9" s="12"/>
@@ -1097,13 +1119,15 @@
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" s="19">
-        <v>1</v>
-      </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="V10" s="20">
+        <v>11</v>
+      </c>
+      <c r="W10" s="21"/>
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1134,7 +1158,9 @@
       </c>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
+      <c r="T11" s="20">
+        <v>1</v>
+      </c>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="12"/>
@@ -1174,10 +1200,16 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="12"/>
+      <c r="T12" s="20">
+        <v>1</v>
+      </c>
+      <c r="U12" s="20">
+        <v>4</v>
+      </c>
+      <c r="V12" s="20">
+        <v>3</v>
+      </c>
+      <c r="W12" s="21"/>
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1208,7 +1240,9 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
+      <c r="V13" s="20">
+        <v>1</v>
+      </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
     </row>
@@ -1239,8 +1273,12 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
+      <c r="U14" s="20">
+        <v>1</v>
+      </c>
+      <c r="V14" s="20">
+        <v>1</v>
+      </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
     </row>
@@ -1274,7 +1312,9 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
+      <c r="V15" s="20">
+        <v>3</v>
+      </c>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
     </row>
@@ -1310,8 +1350,10 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="12"/>
+      <c r="V16" s="20">
+        <v>1</v>
+      </c>
+      <c r="W16" s="22"/>
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="23:24" x14ac:dyDescent="0.25">

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69FE2A8-E20E-4809-AE05-8724C903943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261C2C42-BB28-478E-965E-B7C9F31FA11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Acomayo</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>16ene-22ene</t>
+  </si>
+  <si>
+    <t>SE-03</t>
+  </si>
+  <si>
+    <t>23ene-29ene</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCC46C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,9 +302,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -301,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,10 +363,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +704,7 @@
     <col min="7" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -713,8 +727,9 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="10"/>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -779,8 +794,11 @@
       <c r="V2" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -845,8 +863,11 @@
       <c r="V3" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W3" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,10 +894,11 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="12"/>
+      <c r="W4" s="18"/>
       <c r="X4" s="12"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -909,10 +931,13 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
-      <c r="W5" s="12"/>
+      <c r="W5" s="24">
+        <v>2</v>
+      </c>
       <c r="X5" s="12"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -943,10 +968,11 @@
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
-      <c r="W6" s="12"/>
+      <c r="W6" s="18"/>
       <c r="X6" s="12"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -979,10 +1005,13 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
-      <c r="W7" s="12"/>
+      <c r="W7" s="24">
+        <v>1</v>
+      </c>
       <c r="X7" s="12"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1023,10 +1052,14 @@
       <c r="V8" s="20">
         <v>4</v>
       </c>
-      <c r="W8" s="21"/>
-      <c r="X8" s="12"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W8" s="24">
+        <v>3</v>
+      </c>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="23"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1069,10 +1102,14 @@
         <v>1</v>
       </c>
       <c r="V9" s="18"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W9" s="24">
+        <v>1</v>
+      </c>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="23"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1127,10 +1164,14 @@
       <c r="V10" s="20">
         <v>11</v>
       </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="12"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W10" s="24">
+        <v>9</v>
+      </c>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="23"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1163,10 +1204,14 @@
       </c>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
-      <c r="W11" s="12"/>
+      <c r="W11" s="24">
+        <v>1</v>
+      </c>
       <c r="X11" s="12"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="23"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1209,10 +1254,14 @@
       <c r="V12" s="20">
         <v>3</v>
       </c>
-      <c r="W12" s="21"/>
-      <c r="X12" s="12"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W12" s="24">
+        <v>4</v>
+      </c>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="23"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,10 +1292,12 @@
       <c r="V13" s="20">
         <v>1</v>
       </c>
-      <c r="W13" s="12"/>
+      <c r="W13" s="18"/>
       <c r="X13" s="12"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="23"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1279,10 +1330,14 @@
       <c r="V14" s="20">
         <v>1</v>
       </c>
-      <c r="W14" s="12"/>
+      <c r="W14" s="24">
+        <v>1</v>
+      </c>
       <c r="X14" s="12"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="23"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,10 +1370,13 @@
       <c r="V15" s="20">
         <v>3</v>
       </c>
-      <c r="W15" s="12"/>
+      <c r="W15" s="24">
+        <v>5</v>
+      </c>
       <c r="X15" s="12"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1353,12 +1411,13 @@
       <c r="V16" s="20">
         <v>1</v>
       </c>
-      <c r="W16" s="22"/>
-      <c r="X16" s="12"/>
-    </row>
-    <row r="17" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W17" s="12"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="12"/>
+    </row>
+    <row r="17" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261C2C42-BB28-478E-965E-B7C9F31FA11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB47D86-9A1C-4854-83E6-657386B081C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Acomayo</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>23ene-29ene</t>
+  </si>
+  <si>
+    <t>SE-04</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,10 +795,10 @@
         <v>50</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1207,7 +1210,7 @@
       <c r="W11" s="24">
         <v>1</v>
       </c>
-      <c r="X11" s="12"/>
+      <c r="X11" s="22"/>
       <c r="Y11" s="21"/>
       <c r="Z11" s="23"/>
     </row>
@@ -1333,7 +1336,7 @@
       <c r="W14" s="24">
         <v>1</v>
       </c>
-      <c r="X14" s="12"/>
+      <c r="X14" s="22"/>
       <c r="Y14" s="21"/>
       <c r="Z14" s="23"/>
     </row>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB47D86-9A1C-4854-83E6-657386B081C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4752534-4356-4646-898B-C6D5409B1184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Acomayo</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>SE-04</t>
+  </si>
+  <si>
+    <t>SE-05</t>
+  </si>
+  <si>
+    <t>30ene-05fe</t>
   </si>
 </sst>
 </file>
@@ -693,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,10 +710,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -731,8 +737,9 @@
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X1" s="10"/>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -800,8 +807,11 @@
       <c r="W2" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -869,8 +879,11 @@
       <c r="W3" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X3" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,10 +911,11 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
-      <c r="X4" s="12"/>
+      <c r="X4" s="18"/>
       <c r="Y4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -937,10 +951,13 @@
       <c r="W5" s="24">
         <v>2</v>
       </c>
-      <c r="X5" s="12"/>
+      <c r="X5" s="24">
+        <v>1</v>
+      </c>
       <c r="Y5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -972,10 +989,13 @@
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
-      <c r="X6" s="12"/>
+      <c r="X6" s="24">
+        <v>1</v>
+      </c>
       <c r="Y6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1011,10 +1031,13 @@
       <c r="W7" s="24">
         <v>1</v>
       </c>
-      <c r="X7" s="12"/>
+      <c r="X7" s="24">
+        <v>1</v>
+      </c>
       <c r="Y7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1058,11 +1081,14 @@
       <c r="W8" s="24">
         <v>3</v>
       </c>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="23"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X8" s="24">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="23"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1108,11 +1134,12 @@
       <c r="W9" s="24">
         <v>1</v>
       </c>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="23"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X9" s="18"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="23"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1170,11 +1197,14 @@
       <c r="W10" s="24">
         <v>9</v>
       </c>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="23"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X10" s="24">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="23"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1210,11 +1240,14 @@
       <c r="W11" s="24">
         <v>1</v>
       </c>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="23"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X11" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="23"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1260,11 +1293,14 @@
       <c r="W12" s="24">
         <v>4</v>
       </c>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="23"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X12" s="24">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="23"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1296,11 +1332,12 @@
         <v>1</v>
       </c>
       <c r="W13" s="18"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="23"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X13" s="18"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="23"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1336,11 +1373,14 @@
       <c r="W14" s="24">
         <v>1</v>
       </c>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="23"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X14" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="23"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1376,10 +1416,13 @@
       <c r="W15" s="24">
         <v>5</v>
       </c>
-      <c r="X15" s="12"/>
+      <c r="X15" s="24">
+        <v>4</v>
+      </c>
       <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1415,12 +1458,15 @@
         <v>1</v>
       </c>
       <c r="W16" s="18"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="12"/>
-    </row>
-    <row r="17" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X17" s="12"/>
+      <c r="X16" s="24">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" spans="25:26" x14ac:dyDescent="0.25">
       <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4752534-4356-4646-898B-C6D5409B1184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D5CE6-63C1-4145-9DFC-4E24C21B2946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Acomayo</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>30ene-05fe</t>
+  </si>
+  <si>
+    <t>SE-06</t>
+  </si>
+  <si>
+    <t>06ene-12feb</t>
   </si>
 </sst>
 </file>
@@ -699,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,10 +716,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -738,8 +744,9 @@
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
-    </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y1" s="10"/>
+    </row>
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -810,8 +817,11 @@
       <c r="X2" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -882,8 +892,11 @@
       <c r="X3" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y3" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,10 +925,11 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="X4" s="18"/>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="18"/>
       <c r="Z4" s="12"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -954,10 +968,11 @@
       <c r="X5" s="24">
         <v>1</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="18"/>
       <c r="Z5" s="12"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -992,10 +1007,13 @@
       <c r="X6" s="24">
         <v>1</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="24">
+        <v>1</v>
+      </c>
       <c r="Z6" s="12"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1034,10 +1052,11 @@
       <c r="X7" s="24">
         <v>1</v>
       </c>
-      <c r="Y7" s="12"/>
+      <c r="Y7" s="18"/>
       <c r="Z7" s="12"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1084,11 +1103,14 @@
       <c r="X8" s="24">
         <v>2</v>
       </c>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="23"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y8" s="24">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1135,11 +1157,14 @@
         <v>1</v>
       </c>
       <c r="X9" s="18"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="23"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y9" s="24">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="23"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1200,11 +1225,14 @@
       <c r="X10" s="24">
         <v>14</v>
       </c>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="23"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y10" s="24">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="23"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1243,11 +1271,12 @@
       <c r="X11" s="24">
         <v>1</v>
       </c>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="23"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="23"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1296,11 +1325,14 @@
       <c r="X12" s="24">
         <v>5</v>
       </c>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="23"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y12" s="24">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="23"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1333,11 +1365,12 @@
       </c>
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="23"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="23"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1376,11 +1409,12 @@
       <c r="X14" s="24">
         <v>1</v>
       </c>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="23"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="23"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1419,10 +1453,11 @@
       <c r="X15" s="24">
         <v>4</v>
       </c>
-      <c r="Y15" s="12"/>
+      <c r="Y15" s="18"/>
       <c r="Z15" s="12"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1461,12 +1496,13 @@
       <c r="X16" s="24">
         <v>3</v>
       </c>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="12"/>
-    </row>
-    <row r="17" spans="25:26" x14ac:dyDescent="0.25">
-      <c r="Y17" s="12"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D5CE6-63C1-4145-9DFC-4E24C21B2946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902FC185-214F-466A-92E4-A92AD7C634DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
+    <workbookView xWindow="7335" yWindow="4530" windowWidth="21600" windowHeight="11295" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Acomayo</t>
   </si>
@@ -213,7 +213,13 @@
     <t>SE-06</t>
   </si>
   <si>
-    <t>06ene-12feb</t>
+    <t>SE-07</t>
+  </si>
+  <si>
+    <t>13ene-19feb</t>
+  </si>
+  <si>
+    <t>06efeb-12feb</t>
   </si>
 </sst>
 </file>
@@ -705,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,10 +722,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -745,8 +751,9 @@
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z1" s="10"/>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -820,8 +827,11 @@
       <c r="Y2" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -893,10 +903,13 @@
         <v>57</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,10 +939,11 @@
       <c r="W4" s="18"/>
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
-      <c r="Z4" s="12"/>
+      <c r="Z4" s="18"/>
       <c r="AA4" s="12"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -969,10 +983,13 @@
         <v>1</v>
       </c>
       <c r="Y5" s="18"/>
-      <c r="Z5" s="12"/>
+      <c r="Z5" s="24">
+        <v>2</v>
+      </c>
       <c r="AA5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1010,10 +1027,11 @@
       <c r="Y6" s="24">
         <v>1</v>
       </c>
-      <c r="Z6" s="12"/>
+      <c r="Z6" s="18"/>
       <c r="AA6" s="12"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1053,10 +1071,13 @@
         <v>1</v>
       </c>
       <c r="Y7" s="18"/>
-      <c r="Z7" s="12"/>
+      <c r="Z7" s="24">
+        <v>1</v>
+      </c>
       <c r="AA7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1106,11 +1127,14 @@
       <c r="Y8" s="24">
         <v>4</v>
       </c>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="23"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="23"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1160,11 +1184,14 @@
       <c r="Y9" s="24">
         <v>3</v>
       </c>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="23"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z9" s="24">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="23"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1228,11 +1255,14 @@
       <c r="Y10" s="24">
         <v>4</v>
       </c>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="23"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z10" s="24">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="23"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1272,11 +1302,14 @@
         <v>1</v>
       </c>
       <c r="Y11" s="18"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="23"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z11" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="23"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1328,11 +1361,14 @@
       <c r="Y12" s="24">
         <v>2</v>
       </c>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="23"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z12" s="24">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="23"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1366,11 +1402,14 @@
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="23"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z13" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="23"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1410,11 +1449,12 @@
         <v>1</v>
       </c>
       <c r="Y14" s="18"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="23"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="23"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1454,10 +1494,13 @@
         <v>4</v>
       </c>
       <c r="Y15" s="18"/>
-      <c r="Z15" s="12"/>
+      <c r="Z15" s="24">
+        <v>1</v>
+      </c>
       <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1497,12 +1540,15 @@
         <v>3</v>
       </c>
       <c r="Y16" s="18"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="12"/>
-    </row>
-    <row r="17" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z17" s="12"/>
+      <c r="Z16" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="12"/>
+    </row>
+    <row r="17" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902FC185-214F-466A-92E4-A92AD7C634DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3534AA-7109-486E-BB4F-6AA3C39C30F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="4530" windowWidth="21600" windowHeight="11295" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Acomayo</t>
   </si>
@@ -216,10 +216,16 @@
     <t>SE-07</t>
   </si>
   <si>
-    <t>13ene-19feb</t>
-  </si>
-  <si>
     <t>06efeb-12feb</t>
+  </si>
+  <si>
+    <t>SE-08</t>
+  </si>
+  <si>
+    <t>13feb-19feb</t>
+  </si>
+  <si>
+    <t>20feb-26feb</t>
   </si>
 </sst>
 </file>
@@ -711,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +731,7 @@
     <col min="7" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -752,8 +758,9 @@
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -830,8 +837,11 @@
       <c r="Z2" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="AA2" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -903,13 +913,16 @@
         <v>57</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,10 +953,13 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
-      <c r="AA4" s="12"/>
+      <c r="AA4" s="24">
+        <v>1</v>
+      </c>
       <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -986,10 +1002,11 @@
       <c r="Z5" s="24">
         <v>2</v>
       </c>
-      <c r="AA5" s="12"/>
+      <c r="AA5" s="18"/>
       <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1028,10 +1045,13 @@
         <v>1</v>
       </c>
       <c r="Z6" s="18"/>
-      <c r="AA6" s="12"/>
+      <c r="AA6" s="24">
+        <v>1</v>
+      </c>
       <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1074,10 +1094,11 @@
       <c r="Z7" s="24">
         <v>1</v>
       </c>
-      <c r="AA7" s="12"/>
+      <c r="AA7" s="18"/>
       <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1130,11 +1151,14 @@
       <c r="Z8" s="24">
         <v>1</v>
       </c>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="23"/>
+      <c r="AA8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="23"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1187,11 +1211,12 @@
       <c r="Z9" s="24">
         <v>4</v>
       </c>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="23"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="23"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1258,11 +1283,14 @@
       <c r="Z10" s="24">
         <v>8</v>
       </c>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="23"/>
+      <c r="AA10" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="23"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1305,11 +1333,14 @@
       <c r="Z11" s="24">
         <v>1</v>
       </c>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="23"/>
+      <c r="AA11" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="23"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1364,11 +1395,14 @@
       <c r="Z12" s="24">
         <v>3</v>
       </c>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="23"/>
+      <c r="AA12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="23"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1405,11 +1439,14 @@
       <c r="Z13" s="24">
         <v>1</v>
       </c>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="23"/>
+      <c r="AA13" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="23"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1450,11 +1487,12 @@
       </c>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="23"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="23"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1497,10 +1535,11 @@
       <c r="Z15" s="24">
         <v>1</v>
       </c>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="18"/>
       <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1543,12 +1582,15 @@
       <c r="Z16" s="24">
         <v>1</v>
       </c>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="12"/>
+      <c r="AA16" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="12"/>
     </row>
-    <row r="17" spans="27:28" x14ac:dyDescent="0.25">
-      <c r="AA17" s="12"/>
+    <row r="17" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3534AA-7109-486E-BB4F-6AA3C39C30F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29C2A1-2A97-4A4F-A9D9-37B265345D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Acomayo</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>20feb-26feb</t>
+  </si>
+  <si>
+    <t>SE-09</t>
+  </si>
+  <si>
+    <t>27feb-05mar</t>
   </si>
 </sst>
 </file>
@@ -717,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +737,7 @@
     <col min="7" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -759,8 +765,9 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
     </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -840,8 +847,11 @@
       <c r="AA2" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="AB2" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -921,8 +931,11 @@
       <c r="AA3" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="AB3" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,10 +969,11 @@
       <c r="AA4" s="24">
         <v>1</v>
       </c>
-      <c r="AB4" s="12"/>
+      <c r="AB4" s="18"/>
       <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1003,10 +1017,11 @@
         <v>2</v>
       </c>
       <c r="AA5" s="18"/>
-      <c r="AB5" s="12"/>
+      <c r="AB5" s="18"/>
       <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1048,10 +1063,11 @@
       <c r="AA6" s="24">
         <v>1</v>
       </c>
-      <c r="AB6" s="12"/>
+      <c r="AB6" s="18"/>
       <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1095,10 +1111,11 @@
         <v>1</v>
       </c>
       <c r="AA7" s="18"/>
-      <c r="AB7" s="12"/>
+      <c r="AB7" s="18"/>
       <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1154,11 +1171,12 @@
       <c r="AA8" s="24">
         <v>1</v>
       </c>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="23"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="23"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1212,11 +1230,12 @@
         <v>4</v>
       </c>
       <c r="AA9" s="18"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="23"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="23"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1286,11 +1305,14 @@
       <c r="AA10" s="24">
         <v>3</v>
       </c>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="23"/>
+      <c r="AB10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="23"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1336,11 +1358,12 @@
       <c r="AA11" s="24">
         <v>2</v>
       </c>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="23"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="23"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1398,11 +1421,14 @@
       <c r="AA12" s="24">
         <v>1</v>
       </c>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="23"/>
+      <c r="AB12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="23"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1442,11 +1468,14 @@
       <c r="AA13" s="24">
         <v>1</v>
       </c>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="23"/>
+      <c r="AB13" s="24">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="23"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1488,11 +1517,12 @@
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="23"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="23"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1536,10 +1566,13 @@
         <v>1</v>
       </c>
       <c r="AA15" s="18"/>
-      <c r="AB15" s="12"/>
+      <c r="AB15" s="24">
+        <v>1</v>
+      </c>
       <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
     </row>
-    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1585,12 +1618,13 @@
       <c r="AA16" s="24">
         <v>2</v>
       </c>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="12"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="12"/>
     </row>
-    <row r="17" spans="28:29" x14ac:dyDescent="0.25">
-      <c r="AB17" s="12"/>
+    <row r="17" spans="29:30" x14ac:dyDescent="0.25">
       <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29C2A1-2A97-4A4F-A9D9-37B265345D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F91460-2F50-4E3F-A6FB-0AAC9C67A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Acomayo</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>27feb-05mar</t>
+  </si>
+  <si>
+    <t>06mar-12mar</t>
+  </si>
+  <si>
+    <t>SE-10</t>
   </si>
 </sst>
 </file>
@@ -723,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +743,7 @@
     <col min="7" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -766,8 +772,9 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -850,8 +857,11 @@
       <c r="AB2" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="AC2" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -934,8 +944,11 @@
       <c r="AB3" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AC3" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,10 +983,11 @@
         <v>1</v>
       </c>
       <c r="AB4" s="18"/>
-      <c r="AC4" s="12"/>
+      <c r="AC4" s="18"/>
       <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1018,10 +1032,13 @@
       </c>
       <c r="AA5" s="18"/>
       <c r="AB5" s="18"/>
-      <c r="AC5" s="12"/>
+      <c r="AC5" s="24">
+        <v>1</v>
+      </c>
       <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1064,10 +1081,13 @@
         <v>1</v>
       </c>
       <c r="AB6" s="18"/>
-      <c r="AC6" s="12"/>
+      <c r="AC6" s="24">
+        <v>1</v>
+      </c>
       <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1112,10 +1132,11 @@
       </c>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
-      <c r="AC7" s="12"/>
+      <c r="AC7" s="18"/>
       <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1172,11 +1193,14 @@
         <v>1</v>
       </c>
       <c r="AB8" s="18"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="23"/>
+      <c r="AC8" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="23"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1231,11 +1255,12 @@
       </c>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="23"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="23"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1308,11 +1333,14 @@
       <c r="AB10" s="24">
         <v>1</v>
       </c>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="23"/>
+      <c r="AC10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="23"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1359,11 +1387,12 @@
         <v>2</v>
       </c>
       <c r="AB11" s="18"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="23"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="23"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1424,11 +1453,14 @@
       <c r="AB12" s="24">
         <v>1</v>
       </c>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="23"/>
+      <c r="AC12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="23"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1471,11 +1503,12 @@
       <c r="AB13" s="24">
         <v>1</v>
       </c>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="23"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="23"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1518,11 +1551,14 @@
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="23"/>
+      <c r="AC14" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="23"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1569,10 +1605,11 @@
       <c r="AB15" s="24">
         <v>1</v>
       </c>
-      <c r="AC15" s="12"/>
+      <c r="AC15" s="18"/>
       <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1619,12 +1656,13 @@
         <v>2</v>
       </c>
       <c r="AB16" s="18"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="12"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="12"/>
     </row>
-    <row r="17" spans="29:30" x14ac:dyDescent="0.25">
-      <c r="AC17" s="12"/>
+    <row r="17" spans="30:31" x14ac:dyDescent="0.25">
       <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F91460-2F50-4E3F-A6FB-0AAC9C67A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9599F993-EEA9-48A6-88A9-80E6AE4038F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>Acomayo</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>SE-10</t>
+  </si>
+  <si>
+    <t>SE-11</t>
+  </si>
+  <si>
+    <t>13mar-19mar</t>
   </si>
 </sst>
 </file>
@@ -729,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +746,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -773,8 +779,9 @@
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -860,8 +867,11 @@
       <c r="AC2" s="7" t="s">
         <v>67</v>
       </c>
+      <c r="AD2" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -947,8 +957,11 @@
       <c r="AC3" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="AD3" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,10 +997,11 @@
       </c>
       <c r="AB4" s="18"/>
       <c r="AC4" s="18"/>
-      <c r="AD4" s="12"/>
+      <c r="AD4" s="18"/>
       <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1035,10 +1049,11 @@
       <c r="AC5" s="24">
         <v>1</v>
       </c>
-      <c r="AD5" s="12"/>
+      <c r="AD5" s="18"/>
       <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1084,10 +1099,13 @@
       <c r="AC6" s="24">
         <v>1</v>
       </c>
-      <c r="AD6" s="12"/>
+      <c r="AD6" s="24">
+        <v>1</v>
+      </c>
       <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1133,10 +1151,11 @@
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
-      <c r="AD7" s="12"/>
+      <c r="AD7" s="18"/>
       <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1196,11 +1215,14 @@
       <c r="AC8" s="24">
         <v>3</v>
       </c>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="23"/>
+      <c r="AD8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="23"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1256,11 +1278,14 @@
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="23"/>
+      <c r="AD9" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="23"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1336,11 +1361,14 @@
       <c r="AC10" s="24">
         <v>1</v>
       </c>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="23"/>
+      <c r="AD10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="23"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1388,11 +1416,12 @@
       </c>
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="23"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="23"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1456,11 +1485,12 @@
       <c r="AC12" s="24">
         <v>1</v>
       </c>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="23"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="23"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1504,11 +1534,12 @@
         <v>1</v>
       </c>
       <c r="AC13" s="18"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="23"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="23"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1554,11 +1585,12 @@
       <c r="AC14" s="24">
         <v>1</v>
       </c>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="23"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="23"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1606,10 +1638,11 @@
         <v>1</v>
       </c>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="12"/>
+      <c r="AD15" s="18"/>
       <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1657,12 +1690,13 @@
       </c>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="12"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="12"/>
     </row>
-    <row r="17" spans="30:31" x14ac:dyDescent="0.25">
-      <c r="AD17" s="12"/>
+    <row r="17" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tablas/tabla_defunciones_cero.xlsx
+++ b/tablas/tabla_defunciones_cero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEI-02\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GERESA_covid_cusco\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9599F993-EEA9-48A6-88A9-80E6AE4038F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7C24A-C834-4111-8AEE-5FB22B3FDC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35F084E-A87D-4054-80F3-C51BCACE92B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Acomayo</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>13mar-19mar</t>
+  </si>
+  <si>
+    <t>SE-12</t>
+  </si>
+  <si>
+    <t>20mar-26mar</t>
   </si>
 </sst>
 </file>
@@ -735,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E6999-8BCD-4B3C-B1C7-C4CF1750CA02}">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +752,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" hidden="1" customWidth="1"/>
     <col min="3" max="6" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -780,8 +786,9 @@
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -870,8 +877,11 @@
       <c r="AD2" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="AE2" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -960,8 +970,11 @@
       <c r="AD3" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="AE3" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,10 +1011,11 @@
       <c r="AB4" s="18"/>
       <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
-      <c r="AE4" s="12"/>
+      <c r="AE4" s="18"/>
       <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1050,10 +1064,11 @@
         <v>1</v>
       </c>
       <c r="AD5" s="18"/>
-      <c r="AE5" s="12"/>
+      <c r="AE5" s="18"/>
       <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1102,10 +1117,11 @@
       <c r="AD6" s="24">
         <v>1</v>
       </c>
-      <c r="AE6" s="12"/>
+      <c r="AE6" s="18"/>
       <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1152,10 +1168,11 @@
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
-      <c r="AE7" s="12"/>
+      <c r="AE7" s="18"/>
       <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1218,11 +1235,12 @@
       <c r="AD8" s="24">
         <v>1</v>
       </c>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="23"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="23"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1281,11 +1299,12 @@
       <c r="AD9" s="24">
         <v>1</v>
       </c>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="23"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="23"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1364,11 +1383,14 @@
       <c r="AD10" s="24">
         <v>1</v>
       </c>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="23"/>
+      <c r="AE10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="23"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1417,11 +1439,12 @@
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
       <c r="AD11" s="18"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="23"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="23"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1486,11 +1509,14 @@
         <v>1</v>
       </c>
       <c r="AD12" s="18"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="23"/>
+      <c r="AE12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="23"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1535,11 +1561,12 @@
       </c>
       <c r="AC13" s="18"/>
       <c r="AD13" s="18"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="23"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="23"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1586,11 +1613,12 @@
         <v>1</v>
       </c>
       <c r="AD14" s="18"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="23"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="23"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1639,10 +1667,11 @@
       </c>
       <c r="AC15" s="18"/>
       <c r="AD15" s="18"/>
-      <c r="AE15" s="12"/>
+      <c r="AE15" s="18"/>
       <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1691,12 +1720,13 @@
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
       <c r="AD16" s="18"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="12"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="12"/>
     </row>
-    <row r="17" spans="31:32" x14ac:dyDescent="0.25">
-      <c r="AE17" s="12"/>
+    <row r="17" spans="32:33" x14ac:dyDescent="0.25">
       <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
